--- a/service-api/public/アセスメント.xlsx
+++ b/service-api/public/アセスメント.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XueZ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dgs-medical\dgs-medical\service-api\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FA089080-DE1D-447C-AA25-1127D1513D3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F080E66B-8A3E-42F1-9745-A3C3C9B26901}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8310" xr2:uid="{0E86D549-48A5-41AD-8373-6D3E5AEFF4FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="アセスメント" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$R$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">アセスメント!$A$1:$R$61</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,82 +28,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
   <si>
     <t>評価日：</t>
     <rPh sb="0" eb="3">
       <t>ヒョウカヒ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>関節
 可動域</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>上肢</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>下肢</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>体幹</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>著名な制限なし</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>軽度</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>中等度</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>重度</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>筋力</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>麻痺</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>手指</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>実用</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>補助</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>廃用</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>かなり動かせる</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>半分程度</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>僅かに動かせる</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>痛み・痺れ・浮腫など</t>
@@ -116,150 +116,150 @@
     <rPh sb="6" eb="8">
       <t>フシュ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>食事</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>車椅子〜ベッドへの移乗</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>整容</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>トイレ動作</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>入浴</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>歩行</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>階段昇降</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>着替え</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>排便コントロール</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>合計点</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ADL
 Barthel Index</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>家庭での
 IADL</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>買い物</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>調理</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>掃除</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>洗濯</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>10点</t>
     <rPh sb="2" eb="3">
       <t>テン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>15点</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>5点</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【アセスメント】</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>【Short Physical Performance Battery】</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>バランス</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>閉脚立位</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>セミタンデム位</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>タンデム位</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>4ｍ　歩行テスト
 補助具の使用（                            ）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">椅子立ち上がりテスト 5回
 </t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>総合点数</t>
     <rPh sb="0" eb="4">
       <t>ソウゴウテンスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>秒</t>
     <rPh sb="0" eb="1">
       <t>ビョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>点</t>
     <rPh sb="0" eb="1">
       <t>テン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>12 点満点中</t>
@@ -272,7 +272,7 @@
     <rPh sb="6" eb="7">
       <t>チュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>4  点満点中</t>
@@ -285,7 +285,7 @@
     <rPh sb="6" eb="7">
       <t>チュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2  点満点中</t>
@@ -298,7 +298,7 @@
     <rPh sb="6" eb="7">
       <t>チュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1  点満点中</t>
@@ -311,30 +311,30 @@
     <rPh sb="6" eb="7">
       <t>チュウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>秒  0  点</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>合計</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">      0  点</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1回目:</t>
     <rPh sb="1" eb="3">
       <t>カイメ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>2回目:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>前回評価(3月前)</t>
@@ -347,110 +347,109 @@
     <rPh sb="6" eb="8">
       <t>ガツマエ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(joint_arm)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(joint_legs)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(joint_runk)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(tendon_arm)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(tendon_legs)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(tendon_runk)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(paralysis_arm)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(paralysis_legs)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(paralysis_finger)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(meal)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(move)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(aesthetic)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(toilet)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(bath)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(walking)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(stairs)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(change)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>$(defecation)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>/100点</t>
     <rPh sb="4" eb="5">
       <t>テン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$(total)</t>
-    <phoneticPr fontId="2"/>
+    <t>${joint_arm}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$(shopping)</t>
-    <phoneticPr fontId="2"/>
+    <t>${joint_legs}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$(cook)</t>
-    <phoneticPr fontId="2"/>
+    <t>${joint_runk}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$(cleaning)</t>
-    <phoneticPr fontId="2"/>
+    <t>${tendon_arm}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$(washing)</t>
-    <phoneticPr fontId="2"/>
+    <t>${tendon_legs}</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$(total_Short)</t>
-    <phoneticPr fontId="2"/>
+    <t>${tendon_runk}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${paralysis_arm}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${paralysis_legs}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${paralysis_finger}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${meal}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${move}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${aesthetic}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${toilet}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${bath}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${walking}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${stairs}</t>
+  </si>
+  <si>
+    <t>${change}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${defecation}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${total}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${total_Short}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${shopping}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cook}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cleaning}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${washing}</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -461,14 +460,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -489,7 +480,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -497,14 +487,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="游ゴシック"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -696,177 +694,219 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8281,7 +8321,7 @@
         <xdr:cNvPr id="105" name="テキスト ボックス 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74D8F8F-C34D-452A-AB46-E1D1947F2586}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8643,1459 +8683,1595 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.25" customWidth="1"/>
-    <col min="4" max="4" width="3.5" style="13" customWidth="1"/>
-    <col min="6" max="6" width="9" style="13"/>
-    <col min="7" max="7" width="3.75" customWidth="1"/>
-    <col min="8" max="8" width="4.75" customWidth="1"/>
-    <col min="9" max="9" width="3.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="3.5" customWidth="1"/>
-    <col min="11" max="11" width="6.125" customWidth="1"/>
-    <col min="12" max="12" width="3.375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="3.125" customWidth="1"/>
-    <col min="14" max="14" width="5.75" customWidth="1"/>
-    <col min="15" max="15" width="3" style="13" customWidth="1"/>
-    <col min="17" max="17" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="23.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="9" style="16"/>
+    <col min="7" max="7" width="3.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="4.75" style="5" customWidth="1"/>
+    <col min="9" max="9" width="3.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="6.125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="3.375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="3.125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="5.75" style="5" customWidth="1"/>
+    <col min="15" max="15" width="3" style="16" customWidth="1"/>
+    <col min="16" max="16" width="9" style="5"/>
+    <col min="17" max="17" width="10.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.125" style="5" customWidth="1"/>
     <col min="19" max="19" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="1"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="4"/>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="56" t="s">
-        <v>84</v>
+      <c r="L3" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="15" t="b">
+        <f>IF(Q4=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="I4" s="15" t="b">
+        <f>IF(Q4=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="L4" s="15" t="b">
+        <f>IF(Q4=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="4"/>
+      <c r="O4" s="15" t="b">
+        <f>IF(Q4=4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="15" t="b">
+        <f>IF(Q6=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="I6" s="15" t="b">
+        <f>IF(Q6=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3" t="s">
+      <c r="L6" s="15" t="b">
+        <f>IF(Q6=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="4"/>
+      <c r="O6" s="15" t="b">
+        <f>IF(Q6=4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="7"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="15" t="b">
+        <f>IF(Q8=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="I8" s="15" t="b">
+        <f>IF(Q8=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3" t="s">
+      <c r="L8" s="15" t="b">
+        <f>IF(Q8=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
+      <c r="O8" s="15" t="b">
+        <f>IF(Q8=4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="21" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="7"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="15" t="b">
+        <f>IF(Q10=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
+      <c r="I10" s="15" t="b">
+        <f>IF(Q10=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
+      <c r="L10" s="15" t="b">
+        <f>IF(Q10=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
+      <c r="O10" s="15" t="b">
+        <f>IF(Q10=4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="21" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="7"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="20"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="F12" s="15" t="b">
+        <f>IF(Q12=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
+      <c r="I12" s="15" t="b">
+        <f>IF(Q12=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3" t="s">
+      <c r="L12" s="15" t="b">
+        <f>IF(Q12=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4"/>
+      <c r="O12" s="15" t="b">
+        <f>IF(Q12=4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="21" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="7"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
+      <c r="F14" s="15" t="b">
+        <f>IF(Q14=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
+      <c r="I14" s="15" t="b">
+        <f>IF(Q14=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3" t="s">
+      <c r="L14" s="15" t="b">
+        <f>IF(Q14=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="4"/>
+      <c r="O14" s="15" t="b">
+        <f>IF(Q14=4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="21" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3" t="s">
+      <c r="F16" s="15" t="b">
+        <f>IF(Q16=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3" t="s">
+      <c r="I16" s="15" t="b">
+        <f>IF(Q16=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="4"/>
+      <c r="O16" s="15" t="b">
+        <f>IF(Q16=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="21" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="7"/>
+    <row r="17" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="20"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50" t="s">
+    <row r="18" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
+      <c r="F18" s="15" t="b">
+        <f>IF(Q18=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3" t="s">
+      <c r="I18" s="15" t="b">
+        <f>IF(Q18=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="4"/>
+      <c r="O18" s="15" t="b">
+        <f>IF(Q18=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="21" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="7"/>
+    <row r="19" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="20"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50" t="s">
+    <row r="20" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="3" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
+      <c r="F20" s="15" t="b">
+        <f>IF(Q20=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3" t="s">
+      <c r="I20" s="15" t="b">
+        <f>IF(Q20=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="4"/>
+      <c r="O20" s="15" t="b">
+        <f>IF(Q20=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="21" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="7"/>
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="27"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="4"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="28"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="38"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="7"/>
+    <row r="23" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="27"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="51" t="s">
+    <row r="24" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="D24" s="22" t="b">
+        <f>IF(Q24=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="4"/>
+      <c r="F24" s="18" t="b">
+        <f>IF(Q24=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="25" t="b">
+        <f>IF(Q24=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="R24" s="16"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="52"/>
-      <c r="B25" s="50"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="7"/>
+    <row r="25" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="49"/>
+      <c r="B25" s="47"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="52"/>
-      <c r="B26" s="50" t="s">
+    <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="49"/>
+      <c r="B26" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="22" t="b">
+        <f>IF(Q26=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="4"/>
+      <c r="F26" s="15" t="b">
+        <f>IF(Q26=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="15" t="b">
+        <f>IF(Q26=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="15" t="b">
+        <f>IF(Q26=4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="R26" s="16"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="52"/>
-      <c r="B27" s="50"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="7"/>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="49"/>
+      <c r="B27" s="47"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="52"/>
-      <c r="B28" s="50" t="s">
+    <row r="28" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="49"/>
+      <c r="B28" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="D28" s="22" t="b">
+        <f>IF(Q28=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="4"/>
+      <c r="F28" s="15" t="b">
+        <f>IF(Q28=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" s="16"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="52"/>
-      <c r="B29" s="50"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="7"/>
+    <row r="29" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="49"/>
+      <c r="B29" s="47"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="52"/>
-      <c r="B30" s="50" t="s">
+    <row r="30" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="49"/>
+      <c r="B30" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="D30" s="22" t="b">
+        <f>IF(Q30=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="4"/>
+      <c r="F30" s="15" t="b">
+        <f>IF(Q30=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="15" t="b">
+        <f>IF(Q30=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="R30" s="16"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="52"/>
-      <c r="B31" s="50"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="7"/>
+    <row r="31" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="49"/>
+      <c r="B31" s="47"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="16"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="52"/>
-      <c r="B32" s="50" t="s">
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="49"/>
+      <c r="B32" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="D32" s="22" t="b">
+        <f>IF(Q32=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="4"/>
+      <c r="F32" s="15" t="b">
+        <f>IF(Q32=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="52"/>
-      <c r="B33" s="50"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="7"/>
+    <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="49"/>
+      <c r="B33" s="47"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="52"/>
-      <c r="B34" s="50" t="s">
+    <row r="34" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="49"/>
+      <c r="B34" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="D34" s="22" t="b">
+        <f>IF(Q34=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="4"/>
+      <c r="F34" s="15" t="b">
+        <f>IF(Q34=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="15" t="b">
+        <f>IF(Q34=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="15" t="b">
+        <f>IF(Q34=4,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="52"/>
-      <c r="B35" s="50"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="7"/>
+    <row r="35" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="49"/>
+      <c r="B35" s="47"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="52"/>
-      <c r="B36" s="50" t="s">
+    <row r="36" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="49"/>
+      <c r="B36" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="D36" s="22" t="b">
+        <f>IF(Q36=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="4"/>
+      <c r="F36" s="15" t="b">
+        <f>IF(Q36=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="15" t="b">
+        <f>IF(Q36=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="52"/>
-      <c r="B37" s="50"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="7"/>
+    <row r="37" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="49"/>
+      <c r="B37" s="47"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="52"/>
-      <c r="B38" s="50" t="s">
+    <row r="38" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="49"/>
+      <c r="B38" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D38" s="22" t="b">
+        <f>IF(Q38=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="4"/>
+      <c r="F38" s="15" t="b">
+        <f>IF(Q38=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="15" t="b">
+        <f>IF(Q38=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="R38" s="16"/>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="52"/>
-      <c r="B39" s="50"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="7"/>
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="49"/>
+      <c r="B39" s="47"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="16"/>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="52"/>
-      <c r="B40" s="50" t="s">
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="49"/>
+      <c r="B40" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="22" t="b">
+        <f>IF(Q40=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="4"/>
+      <c r="F40" s="15" t="b">
+        <f>IF(Q40=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="15" t="b">
+        <f>IF(Q40=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="R40" s="16"/>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="52"/>
-      <c r="B41" s="50"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="7"/>
+    <row r="41" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="49"/>
+      <c r="B41" s="47"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="27"/>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="53"/>
-      <c r="B42" s="8" t="s">
+    <row r="42" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="50"/>
+      <c r="B42" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="30" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q42" s="12" t="s">
-        <v>78</v>
+      <c r="Q42" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="51" t="s">
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="4"/>
+      <c r="D43" s="22" t="b">
+        <f>IF(Q43=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="15" t="b">
+        <f>IF(Q43=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="15" t="b">
+        <f>IF(Q43=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="21" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="52"/>
-      <c r="B44" s="50"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="7"/>
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="49"/>
+      <c r="B44" s="47"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="20"/>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="52"/>
-      <c r="B45" s="50" t="s">
+    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="49"/>
+      <c r="B45" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D45" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="4"/>
+      <c r="D45" s="22" t="b">
+        <f>IF(Q45=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="15" t="b">
+        <f>IF(Q45=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="25" t="b">
+        <f>IF(Q45=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="21" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="52"/>
-      <c r="B46" s="50"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="7"/>
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="49"/>
+      <c r="B46" s="47"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="20"/>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="52"/>
-      <c r="B47" s="50" t="s">
+    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="49"/>
+      <c r="B47" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="4"/>
+      <c r="D47" s="22" t="b">
+        <f>IF(Q47=1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="15" t="b">
+        <f>IF(Q47=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="15" t="b">
+        <f>IF(Q47=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="21" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="52"/>
-      <c r="B48" s="50"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="7"/>
+    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="49"/>
+      <c r="B48" s="47"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="20"/>
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="52"/>
-      <c r="B49" s="50" t="s">
+      <c r="A49" s="49"/>
+      <c r="B49" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G49" s="21" t="b">
+      <c r="D49" s="22" t="b">
+        <f>IF(Q49=1,TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="4"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="15" t="b">
+        <f>IF(Q49=2,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="15" t="b">
+        <f>IF(Q49=3,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="21" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="53"/>
-      <c r="B50" s="50"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="15"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="7"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="47"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="27"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A53" s="46"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
-      <c r="I53" s="45"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="32" t="s">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="34"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="33"/>
     </row>
     <row r="54" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25" t="s">
+      <c r="C54" s="53"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="55">
         <v>0</v>
       </c>
-      <c r="I54" s="26" t="s">
+      <c r="I54" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J54" s="32" t="s">
+      <c r="J54" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="26" t="s">
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="46"/>
-      <c r="B55" s="22" t="s">
+      <c r="A55" s="43"/>
+      <c r="B55" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25" t="s">
+      <c r="C55" s="53"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="55">
         <v>0</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="I55" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J55" s="32" t="s">
+      <c r="J55" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="26" t="s">
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="46"/>
-      <c r="B56" s="22" t="s">
+      <c r="A56" s="43"/>
+      <c r="B56" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="25" t="s">
+      <c r="C56" s="59"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="55">
         <v>0</v>
       </c>
-      <c r="I56" s="26" t="s">
+      <c r="I56" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J56" s="32" t="s">
+      <c r="J56" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="26" t="s">
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="38"/>
+      <c r="C57" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="25" t="s">
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="55">
         <v>0</v>
       </c>
-      <c r="I57" s="26" t="s">
+      <c r="I57" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J57" s="35" t="s">
+      <c r="J57" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="2" t="s">
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O57" s="14"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="26" t="s">
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A58" s="46"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="5" t="s">
+      <c r="A58" s="43"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="25" t="s">
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="55">
         <v>0</v>
       </c>
-      <c r="I58" s="26" t="s">
+      <c r="I58" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J58" s="38"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="5" t="s">
+      <c r="J58" s="66"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="67"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="O58" s="15"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="26" t="s">
+      <c r="O58" s="69"/>
+      <c r="P58" s="69"/>
+      <c r="Q58" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25" t="s">
+      <c r="B59" s="46"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="55">
         <v>0</v>
       </c>
-      <c r="I59" s="26" t="s">
+      <c r="I59" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J59" s="32" t="s">
+      <c r="J59" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="26" t="s">
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="23">
+      <c r="G60" s="54"/>
+      <c r="H60" s="55">
         <v>0</v>
       </c>
-      <c r="I60" s="26" t="s">
+      <c r="I60" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="J60" s="32" t="s">
+      <c r="J60" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="30" t="s">
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="Q60" s="31" t="s">
+      <c r="Q60" s="30" t="s">
         <v>56</v>
       </c>
     </row>
@@ -10145,7 +10321,7 @@
     <mergeCell ref="C53:I53"/>
     <mergeCell ref="J53:M53"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
